--- a/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Examining Legislative Proposals to Reduce Regulatory Burdens on Main Street Job Creators.''    Before I begin, I would like to thank the witnesses for traveling to 2128 Rayburn, and making yourselves available for our questions. I also ask unanimous consent that any members of the full Financial Services Committee who are not members of the subcommittee be allowed to participate in today's hearing.    Without objection, it is so ordered.    I now recognize myself for 3 minutes to give an opening statement.    Good morning. Today, we continue the subcommittee's focus on providing regulatory relief for Main Street job creators. Throughout this Congress, we have seen examples and heard testimony about how regulatory impediments prohibit job creation, cause consolidation of community financial institutions, and decrease the choices for our consumers.    Some of the proposals we have already considered have received bipartisan support. Many of the bills before this subcommittee today are no different. For example, Representative Stivers introduced H.R. 2121, the SAFE Transitional Licensing Act, which will ensure that workers who originate mortgages at depository institutions are able to move to nondepository institutions with a minimal amount of work disruption. This bill has very broad bipartisan support on the committee and in the House.    H.R. 2473, introduced by Ranking Member Clay and I, will ensure that small credit unions are able to more easily access the secondary mortgage market to ensure their members get competitive prices and robust credit availability. This bill is especially important in light of the Federal Housing Finance Agency's (FHFA's) proposed rule changing the membership requirements of the Federal Home Loan Banks.    While not yet bipartisan, H.R. 3340, from Representative Emmer, is another important bill to be considered today. It would provide much needed congressional control over the budget of the Financial Stability Oversight Council (FSOC). While I may not always agree with FSOC, it is perfectly positioned to help coordinate multi-agency regulatory issues. I have become increasingly disappointed that FSOC has failed to provide that coordination and has instead become dominated by the Treasury and the Federal Reserve.    Some will argue that this bill will undercut FSOC's work, but that is really not the case. H.R. 3340 preserves the funding stream for FSOC in the Office of Financial Research (OFR), but requires congressional approval on how they spend the money.    Several other great bills are before our committee today to demonstrate the hard work of several of our members, and I look forward to hearing from our witnesses about how these bills will work from a mechanical standpoint, and how they will also help us achieve the policy objective of reducing regulatory burdens for our job creators.    I now recognize the ranking member of the subcommittee for as much time as he may consume.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    And thank you to each of the witnesses for your insight and for your testimony today.    Much of our work in this subcommittee has been dedicated to finding common ground on regulatory relief. We have been partially successful in doing so, and today's hearing includes a number of proposals that provide real relief for Main Street, including H.R. 2473, as the chairman mentioned, a proposal that we have cosponsored.    I would caution my colleagues against proposals that have failed to attract bipartisan support and that undermine the implementation of the Dodd-Frank Act, like H.R. 2896 and H.R. 3340, or like H.R. 2287, which seeks to pressure the National Credit Union Association (NCUA) into shrinking its budget just as credit unions become more complex. Regulatory relief is a worthy objective, but it should always be balanced against broader considerations, such as ensuring the safety and soundness of our financial system, protecting the independence of our financial regulators, and supporting the implementation of Dodd-Frank.    Thank you again to each of today's witnesses. And I yield back the remainder of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I would like to thank the ranking member for holding this hearing.    Reducing the regulatory burden for Main Street job creators like small banks and credit unions is certainly an important topic and should continue to be a consistent bipartisan goal of this committee. I would like to thank our witnesses for taking the time to appear before the committee today as well.    I ask for unanimous consent to enter into the record letters from the American Bankers Association, the Independent Community Bankers of America, the Credit Union National Association, and the National Association of Federal Credit Unions supporting the Taking Account of Institutions with Low Operational Risk (TAILOR) Act.</t>
   </si>
   <si>
@@ -91,27 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kupiec</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kupiec. Chairman Neugebauer, Ranking Member Clay, and distinguished members of the subcommittee, thank you for convening this hearing. It is an honor for me to testify here today.    My testimony will consider the merits of seven separate bills that are currently under consideration. In my opinion, none of these bills will magnify financial sector risks, nor will any of these bills dilute the Dodd-Frank Act's requirement for heightened supervision and regulation of systemically important financial institutions (SIFIs).    Many of these bills propose commonsense improvements to existing legislation. For example, the SAFE Transitional Licensing Act of 2015 creates a 120-day grace period during which a licensed mortgage loan originator may continue originating loans while changing jobs and applying for a new license.    The National Credit Union Administration Budget Transparency Act will approve accountability and management of the NCUA by requiring public disclosure and soliciting comments as part of the annual budgeting process.    The Community Bank Capital Clarification Act amends Section 171 of the Dodd-Frank Act so that all bank holding companies with less than $15 billion in consolidated assets will be exempt from the Dodd-Frank Act mandatory holding company leverage and risk-based capital regulations. Bank holding companies below the $15 billion threshold as of December 2009 were exempted in the Dodd-Frank Act because they were not seen as a threat to financial stability. I do not see why similarly sized institutions would pose a threat today.    The Preserving Capital Access and Mortgage Liquidity Act of 2015 allows credit unions under a billion dollars to join the Federal Home Loan Bank (FHLB) System without meeting the FHFA's proposed mortgage threshold rules. This amendment would merely put the FHLB membership requirements for credit unions on par with those of small banks.    The Financial Stability Oversight Council Reform Act places the Office of Financial Research under the normal congressional appropriations and oversight process. The OFR should have been subject to these procedures from the beginning.    Two proposed bills are more involved and require a bit more explanation. The TAILOR Act of 2015 requires bank regulatory agencies to modify their supervision and regulation practices so that they are appropriate for the risk profile of smaller institutions. There is a legitimate concern in Congress that the Dodd-Frank Act includes new heightened standards for supervision and regulation that were intended for larger institutions but instead are being applied to all regulated depository institutions.    The TAILOR Act requires regulators to modify their one-size-fits-all approach to regulation and reduce regulations and processes that are burdening smaller institutions with unnecessary and unproductive compliance costs. Regulators must explicitly recognize the need to tailor regulations and supervisory processes and reflect this tailoring in their examination manuals and notices of proposal rulemaking.    The final bill I will discuss, H.R. 2209, requires the banking agencies to amend their Liquidity Coverage Ratio (LCR) rule to give low-risk, highly liquid, State and municipal bond obligations treatment that is consistent with their liquidity characteristics. The LCR requires large banks and bank holding companies to hold a sufficient quantity of highly liquid assets (HQLA) to enable them to survive a hypothetical month-long bank run. The LCR has specific requirements that determine which bank assets count as HQLA. The final LCR rule does not recognize State or municipal bonds as HQLA, so they have no value toward satisfying the LCR requirement.    Many public comment letters recommended that investment grade liquid, State, and municipal securities be included in HQLA. The reasons for counting State and muni securities in HQLA include the fact that many of these bonds are at least as liquid as the corporate bonds that are eligible for HQLA treatment, many have higher ratings and better liquidity than some of the foreign bonds that are also eligible for Level 1 and Level 2 assets in the HQLA, and many asset-specific characteristics for the Level 2 and Level B requirements are met by many State and municipal bonds.    There is concern that the exclusion of State and municipal bonds from the definition of HQLA will damage muni market liquidity as banks will no longer favor holding these issues. In May 2015, the Federal Reserve Board proposed amending its LCR rule to recognize State and municipal bonds as Level 2 assets, which would count as HQLA.    H.R. 2209 will require the Federal banking agencies to revise the final LCR rule to include qualifying State and municipal bonds as Level 2A assets in the definition of HQLA. This change is appropriate and consistent with the public interest. I would go further and recommend that State and municipal bonds that satisfy the characteristics required by Level 2B assets should also be recognized in HQLA.    Thank you, and I look forward to your questions.    [The prepared statement of Dr. Kupiec can be found on page 50 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. Thank you.    Mr. Ireland, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ireland. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee. I am pleased to be here today. My name is Oliver Ireland. I am a partner in the financial services practice at Morrison &amp; Foerster here in town and previously was an Associate General Counsel with the Federal Reserve Board. I was with the Federal Reserve System for 26 years before joining private practice. I currently have more than 40 years experience dealing with bank regulatory issues.    Today, the subcommittee is considering seven different proposals that cover a broad range of issues. My testimony will touch on each of them. I look forward to questions and to drilling down on details at the subcommittee's pleasure.    The TAILOR Act, H.R. 2896, would address the problem of regulatory burdens on smaller institutions due to requirements designed for larger and more complex institutions. Many of the provisions of the Dodd-Frank Act tried to differentiate between larger and smaller institutions, some of them in the statute, some of them in the regulations, but there is nevertheless a trickle-down effect on smaller institutions.    Smaller institutions remain subject to some very complex rules, including things such as the Volcker Rule, and while in practice it shouldn't apply to any of their activities, they still have to understand the Rule in order to be sure that it doesn't. So I think the TAILOR Act is another step to try to address regulatory burden on smaller institutions. I think it is an important step.    H.R. 2987, the Community Bank Clarification Act, would expand the grandfather for capital instruments for under-$15 billion institutions. This is a technical change to the current statute. Drafting legislation, particularly in a response to a crisis such as the recent financial crisis, and creating the Dodd-Frank Act is hard work. There are bound to be technical issues. This is one of the technical issues, it is a cleanup, and I can't see why there should be any controversy with respect to that provision.    H.R. 2473, Preserving Capital Access and Mortgage Liquidity, expands credit unions' access to Federal Home Loan Bank membership and Federal Home Loan Bank borrowing and should promote credit union lending to smaller businesses, smaller farms, and community development organizations, and I think that is also desirable.    H.R. 2121 is the SAFE Transitional Licensing Act and deals with mortgage originator licensing under the SAFE Act and facilitates the movement of mortgage originators, individuals, from depository institutions to nondepository institutions and between States. I understand that there is perhaps a subsequent discussion draft of that bill, and there may be technical issues that need to be worked out, but I think the thrust of the proposal is good and will improve competition among mortgage originators, and competition improves quality.    H.R. 2287 deals with budgetary transparency for the NCUA. I understand that bank regulators don't necessarily like to have their budgets scrutinized. I lived as a bank regulator for a long time, and I think at least the bank regulatory budget ought to be something that people are aware of and understand the purposes of and understand what is going on, and I am for budgetary transparency.    H.R. 2209 deals with municipal obligations under the Liquidity Coverage Ratio. I think that the failure to include municipal obligations as high-quality liquid assets in the current rules will adversely affect the liquidity of those obligations and will almost inevitably adversely affect the pricing of those obligations, making it more difficult and more expensive for States and municipalities to raise funding going forward. And as my colleague Dr. Kupiec pointed out, the risks of expanding high-quality liquid assets to pick up these assets are minimal.    The Financial Stability Oversight Council Reform Act again is budgetary transparency and budgetary accountability for the Office of Financial Research. I think the people of the United States have a right to know how their money is being spent and oversight over that money, unless there are serious issues that the political process will impair those functions, which I don't see here.    Thank you. I look forward to your questions.    [The prepared statement of Mr. Ireland can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Now, Mr. Stanley, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Stanley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stanley. Thank you. Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee, thank you for the opportunity to testify before you today.    AFR opposes H.R. 2287, H.R. 2896, and H.R. 3340. We also have some concerns regarding H.R. 2209. We have no views on the other bills under consideration today.    The TAILOR Act would mandate that Federal banking regulators tailor regulations to the risk profile of regulated institutions. We view the specific requirements in this legislation as unnecessary, as regulators are already scaling rules to the business model of affected institutions.    We also view several of the provisions in this bill as potentially harmful. H.R. 2896 requires Federal financial regulators to limit the regulatory impact costs and burdens to regulated institutions. This broad and vague mandate prioritizes reducing the cost of regulation over the offsetting benefits gained for consumers and the general public. It would apply to all regulated entities and is not limited to community banks.    While the requirements in H.R. 2896 sound reasonable in the abstract, their practical effect would be to layer additional requirements on an already lengthy and cumbersome rulemaking process and to create numerous litigation opportunities for the financial industry to challenge regulation in court based on the extremely broad and vague mandates in this legislation.    H.R. 3340 would eliminate the independent funding for the Financial Stability Oversight Council and its research arm, the Office of Financial Research, and also require that the OFR provide an advance comment period prior to issuing any report.    The FSOC and the OFR were created as a direct response to the grave weaknesses in the financial regulatory system that were revealed in the 2008 financial crisis. The inability to provide unified and coherent oversight of nonbank financial institutions, as well as the financial system as a whole, contributed directly to the financial crisis of 2008 and its disastrous impact on the U.S. and world economy.    Political independence is crucial to the work of the FSOC and the OFR. While there are many checks and balances built into the process of FSOC designation, including multiple appeal opportunities and the ability to challenge FSOC designation in court, the potential micromanagement of financial risk assessment through the congressional appropriations process should not be one of them.    The importance of impartial risk assessment is the reason why all of our major bank regulators, including the FDIC, the OCC, the Federal Reserve, and the CFPB, are independently funded outside of the congressional appropriations process.    The bill's requirement that the OFR solicit public comment prior to issuing reports on financial risk would also limit the independence of the agency and its ability to objectively assess risk, free of outside pressures.    H.R. 2287 would require the National Credit Union Administration to make drafts of their agency budget publicly available for comment and to respond to or incorporate such public comments in their final agency budget. We believe the budgetary requirement in H.R. 2287 is inappropriate for a public regulatory entity. The NCUA has the crucial role of safeguarding the taxpayer guarantee of publicly insured credit union deposits. It requires independence from those it regulates.    While credit unions certainly did not cause the 2008 crisis, it is still important to remember that significant public action was required during that period to rescue the credit union system. This included the seizure and closure of several large credit unions and the issuance of over $30 billion in government-guaranteed bonds to stabilize the system.    H.R. 2209 would mandate that banking regulators classify investment grade municipal debt obligations as liquid assets under the Liquidity Coverage Ratio. AFR shares concerns regarding the treatment of municipal debt in the LCR rule and raised similar concerns in our comment to regulators. However, we believe that given existing regulatory efforts to address this issue, and the apparently quite limited impact of the LCR rule on the municipal debt market, it is more appropriate to leave this issue to regulatory action rather than act through statute.    In relation to the FSOC, which is related to the H.R. 3340 bill being discussed today, I would also like to mention another piece of legislation, H.R. 1550, that while not included in today's legislation, may also be marked up by the committee soon. This legislation would at least double the time it takes for the Council to designate a large financial firm from the current 2 years to at least 4 years, and it could create a situation where a large financial firm that is skilled at manipulating the process could delay increased regulatory oversight almost indefinitely.    FSOC designation is already a multiyear process that includes some 10 major steps and multiple opportunities for appeal. Given the importance of the FSOC, Congress should reject legislation like H.R. 1550 that would bog down operations even further.    Thank you.    [The prepared statement of Mr. Stanley can be found on page 58 of the appendix.]</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman.    I appreciate each of you and your testimony.    Now, one of the things that we have been wrestling with in our State is that the Dodd-Frank regulations were intended for the large institutions but they bleed down to the smaller ones because it's impossible in the mindset of regulators to have two different mindsets when you walk in, so they are going to hold to the tighter regulations.    Mr. Kupiec, are you familiar with any of the effects that this is having on financial institutions in the smaller rural States, ones without the big megabanks?</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Neugebauer and Ranking Member Clay, for holding this hearing.    And thank you to those distinguished panel members for your appearance and testimony here today.    Small businesses and Main Street are the lifeblood of our economy. We should be doing everything we can to ensure that Main Street America is able to prosper.    Sadly, however, this Congress is going down a path fundamentally hurtful to Main Street. While this committee examines legislative proposals aimed at helping Main Street, the House today considers H.R. 692, the Pay China First Act. This H.R. 692 is nothing but default by another name. Moreover, adding insult to injury, H.R. 692 mandates that we pay foreigners instead of American servicemembers and veterans.    Rather than acting responsibly, this Congress prefers to play Russian roulette with our economy and the lives of millions of Americans. Raising the debt ceiling does not increase the deficit nor authorize new spending. It merely pays the bills this Congress has already authorized. Raising the debt ceiling is the only responsible thing to do, in my opinion.    My first question goes to Paul Kupiec. H.R. 2209 would consider muni bonds that are liquid and readily marketable, as well as investment grade to be treated as Level 2A liquid assets. The banking regulators appear to have been unable to fairly or effectively differentiate between municipal securities.    So by skirting the regulatory process, is Congress essentially picking winners and losers between financial asset holdings for banks and financial institutions?</t>
   </si>
   <si>
@@ -241,9 +217,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman.    I would like to start out with talking about H.R. 2987, the Community Bank Capital Clarification Act, and I think basically it is kind of a unique piece of legislation, because I think it addresses a unique problem here from the standpoint that within Dodd-Frank, there is a problem that has arisen with regard to trust-preferred securities that are used as Tier 1 capital or count toward it.    Dodd-Frank stuck in there a date of any bank holding company that is $15 billion or more at that point in time goes into a separate set of rules and those under don't. And what happens if the institution gets rid of its Tier 1 trust-preferred securities is they get to fall back, and there is no provision for that to allow to happen, so they are kind of stuck in limbo here, is my understanding.    And so, Mr. Ireland, I want to ask you if my interpretation of that is correct, and what kind of institutions are going to benefit from this bill?</t>
   </si>
   <si>
@@ -286,10 +259,7 @@
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    And now, the Chair recognizes the gentleman from Georgia, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
-    <t>400145</t>
-  </si>
-  <si>
-    <t>Scott Garrett</t>
+    <t>400363</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Scott. Thank you very much, Mr. Chairman.    These seven legislative proposals that we are considering today serve, in my opinion, as a positive step to help reduce many of the regulatory burdens. But I am particularly supportive of H.R. 2287, which would require the National Credit Union Administration Board to submit a detailed draft of their budget to the Federal Register for comment and hold public hearings.    Now, I think it was about a month or so ago that NCUA Chair Debbie Matz appeared before this committee and gave us some very interesting testimony. But the record will reflect that her testimony revealed a very severe need for our particular legislation, because our legislation would simply have the NCUA be held accountable for its budget and would allow the credit unions that they represent to take a more active role in its budget decisions.    And I believe that our bill, with Representative Mulvaney providing the leadership, will do just that. It is very necessary, from her testimony, to really show how crucial it is to do this so that we can build a more positive relationship between the NCUA and the credit unions that it represents.    And so I wanted to make that clear, Mr. Chairman, because this is one time that a hearing has produced a great need for legislation, and this committee has, under the leadership of Representative Mulvaney, provided just that leadership, and I am proud to work with him on it.    Mr. Ireland, I am concerned about smaller banking institutions and the larger banking institutions. Could you explain more about the stratification that smaller banking institutions experience regarding trying to implement risk-based models compared to our larger banking institutions?</t>
@@ -313,9 +283,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank the chairman and the ranking member. I also thank Mr. Scott for his input on H.R. 2287, which I want to review very briefly. I wish Mr. Hinojosa was still here. He had asked a question earlier about the NCUA budget from 2001 through 2009, and I think he implied in his question that the budget had gone down to the point where the NCUA was not able to deal with the financial crisis.    I am looking at the numbers from 2002 through 2009, and they didn't go down, and I haven't heard anybody here claim that they were unable to deal with the financial crisis. In fact, everything I have heard about the credit unions is they weren't really part of the financial crisis to begin with, that they may have faced some challenges that came with the larger overall declining economy, but certainly they were not at the epicenter of the difficulties.    I wish that he was here to hear that because I think that concern--and the reason he raised it, by the way, for those of you who follow H.R. 2287, is that the NCUA is now claiming that if we have to go back to the system we had between 2001 and 2009, they won't have enough money, that additional insight and oversight by the folks who pay the bills will effectively drive the regulator out of business.    That is simply not the case with the historical numbers from the period of time when they used to do that. They used to have that type of oversight, from 2001 to 2009, and when Chair Matz came in, she stopped that process. So just to set the record straight, we don't have a problem historically. There is no correlation between oversight and participation and the NCUA not being able to do its job.    Now with that, there is another complaint, Mr. Ireland, that Chair Matz is making now, which is that if you go back to the old system it will cause the agency to--will jeopardize the agency's policy independence. How would you respond to that, sir?</t>
   </si>
   <si>
@@ -361,9 +328,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman.    And I thank each of you for being with us today.    I would like to thank Congressman Emmer for his role on the FSOC reform bill, particularly as it relates to the budget process or lack thereof and the need for greater transparency and accountability.    Dr. Kupiec, do you believe that there is any limitation at all in the funding opportunities for FSOC and OFR?</t>
   </si>
   <si>
@@ -409,9 +373,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman.    Mr. Chairman, we often speak of providing regulatory relief for small banks, and I think if we are serious about it we should start by making quick fixes wherever possible where we can offer some immediate relief. So I introduced H.R. 2987 along with Representative Maloney, Representative King, and Representative Luetkemeyer, to provide a technical correction to Section 171 of Dodd-Frank to allow small banks with less than $15 billion in assets to be able to continue to use their trust-preferred status as part of their Tier 1 capital.    The intent of this section of Dodd-Frank was to make sure that the large banks have high-quality capital while providing an exemption for smaller banks with assets under $15 billion. But I believe it was a mistake to set in law a fixed date of December 31, 2009, as a permanent judgment date for determining which banks had less than $15 billion in assets to qualify regardless of what happened to the size of the institutions in the future.    This is inconsistent with other legislation that uses asset thresholds like the CFPB's $10 billion threshold or the SIFIs $50 billion threshold. All these thresholds are based on the size of the institution today. It is also unfair to institutions that are currently as small as $6 billion today but are still regulated like large banks with over $15 billion.    This bill would allow banks that have assets of less than $15 billion today to be treated fairly and therefore be eligible for the exemption that was meant to be available for such small institutions. And in this bill we make sure that the intent of Dodd-Frank is entirely preserved, so if the bank's assets go back to above $15 billion, then they lose that exemption. So this bill would provide relief for institutions that go below $15 billion for as long as they remain below that level.    This is a simple fix, Mr. Chairman, and is also logical, and these banks need the relief, and they need relief now.    Mr. Chairman, I hope we can have this included in our next markup and approve this legislation as soon as possible. And I am pleased that this is one of the pieces of legislation that we were able to do in a completely bipartisan manner. We have over 40 cosponsors, about half and half: 50 percent Republicans; and 50 percent Democrats. And I want to thank my colleagues on both sides of the aisle for their hard work on this legislation.    Lastly, I believe that high-quality municipal bonds, some of which are more liquid and less risky than highly rated corporate bonds, should be included in the definition of Level 2A high-quality liquid assets in the LCR. This is critically important for cities like my little City--New York, a little, small City on the coast--and is another important improvement that we need to approve.    So in the time I have left, I will just ask to the witnesses whether or not you think that banks should be regulated today based on the size of their assets back in 2009, or do any of the witnesses believe that banks under $15 billion pose a systemic risk to the financial services industry?    Gentlemen?</t>
   </si>
   <si>
@@ -463,9 +424,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. I want to thank you for holding this hearing on these important bills. And I have two that I am particularly concerned about.    I would like to ask Paul Kupiec about H.R. 2209, which Mr. Messer and I introduced earlier this year, that would level the playing field for our cities and States by requiring the banking regulators to treat certain municipal bonds as liquid assets, just like corporate bonds. And as a former city council member, I know the importance of muni bonds to allow States and cities to finance infrastructure and schools, and to pave roads.    Unfortunately, in the banking regulators liquidity rule, which requires bank to hold a minimum amount of liquid assets, the regulators chose to allow corporate bonds to qualify as liquid assets but completely excluded municipal bonds, even municipal bonds that are just as liquid as corporate bonds. And this makes no sense and threatens to raise borrowing costs for municipalities across this country.    The Fed has already recognized this error and is amending its rule to allow certain muni bonds to count as liquid assets, but the OCC is still refusing to amend its rule and insists on favoring corporations over municipalities.    So I would like to specifically ask you, Mr. Kupiec, if you considered two identical bonds, same size, same maturity, same everything, both bonds are liquid enough to satisfy all of the liquidity criteria in the OCC's rule, but one bond was issued by a corporation, and one was issued by a local government, and under the OCC's rule the corporate bond would be considered a high-quality liquid asset, but the muni bond would not, even though they had the exact same liquidity, do you think that is a fair outcome?</t>
   </si>
   <si>
@@ -511,9 +469,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman.    And thanks to all our witnesses for being here today.    I am a small business owner in Texas. I am a car dealer. And you can imagine what I think of the CFPB and how they are issuing laws and so forth. But also it is quite evident that they have largely ignored congressional intent.    As a member of this subcommittee, I am proud to have cosponsored many of the proposals we are discussing today, including H.R. 2121, H.R. 2897, and H.R. 3340. All of these proposals will help reduce the regulatory burdens facing so many families and small businesses in America today, and again speaking of Main Street.    I want to take a second to focus on H.R. 3340, sponsored by my good friend, Congressman Emmer. His proposal, which ultimately brings the budgets for the Financial Stability Oversight Council and the Office of Financial Research under appropriations, will no doubt provide for greater transparency where it is sorely needed. My first question to you, Mr. Kupiec, is the following: Has the FSOC been transparent through the process of designating MetLife, Prudential, General Electric Capital, and American International Group as nonbank SIFIs?</t>
   </si>
   <si>
@@ -562,9 +517,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    We have a lot of bills under discussion today, and most of them are pretty good. The first is the Community Bank Capital Clarification Act, and I think that the importance of this bill, its fairness, could be illustrated by the fact that if you had two $14 billion institutions even 10, 20 years from now, they just happened to be at $14 billion apiece, and one of them would have one rule, but the other would have a different rule because back in 2009 it was $16 billion.    Obviously, we ought to treat identical banks identically, and if the bank is below the threshold it ought to be below the threshold. The idea that you would have a mark--I don't know what the mark would be on the forehead of the bank--because it was over the threshold decades ago would treat identical institutions in a nonidentical manner.    I have cosponsored the National Credit Union Administration Budget Transparency Act because I think it does make sense for an organization to publish its budget and to hear from folks who comment on it. There is some concern that all of the comments will be to tell the NCUA to do less regulation. People who raise that fear have never met anyone from the ICBA, but I am confident that the ICBA will have comments about the Credit Union Administration's budget.    I think the witnesses have already talked about the importance of allowing mortgage professionals to move from one job to another and to bring their skills. It is the unskilled mortgage professionals that can get us into trouble, and that is why I think Mr. Stivers has a good bill, the Safe Transitional Licensing Act of 2015.    Let's see, a fourth bill is Preserving Capital Access and Mortgage Liquidity. The FHFA says we need to fix this problem, we need to extend parity for credit unions under a billion dollars in assets, and I look forward to cosponsoring that bill.    And I would go on at length about H.R. 2209, Mr. Messer's bill to require the Federal banking agencies to treat certain municipal obligations as Level 2A liquid assets, but the gentlelady from New York did such an excellent job of explaining the importance of that bill that I don't have to.    I will ask the witnesses whether they have any comments on those four bills, and if not, I may shock my colleagues and yield back my time before I have gone over time.</t>
   </si>
   <si>
@@ -580,9 +532,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman.    With respect to H.R. 3340, Mr. Emmer's Financial Stability Oversight Council Reform Act, of which I am a cosponsor, and I appreciate the leadership of Mr. Emmer on this important transparency measure, my question to the witnesses is in response to Mr. Stanley's argument for the need for political independence. I believe Mr. Stanley's phrase was the reason why FSOC's funding is not subject to the appropriations process or congressional review of how these fees are used is the need for political independence.    Of course in the Declaration of Independence, Thomas Jefferson talked about the fact that governments are instituted among men deriving their just powers from the consent of the government. And I think Mr. Jefferson as a Founder of our country would be troubled to find that so many of the regulatory agencies in our country are not instituted among the American people based on the consent of the governed, but instead on this principle of the need for political independence. That, to me, resembles more the institutions that we saw in the Soviet Union instead of a democratic society where governing entities are subject to the consent of the people.    I would be interested to hear from the witnesses about Mr. Stanley's argument for the need for political independence and why more transparency is not a good idea.    Dr. Kupiec?</t>
   </si>
   <si>
@@ -616,9 +565,6 @@
     <t>412639</t>
   </si>
   <si>
-    <t>Tom Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    And I especially thank the panel for being here today.    I am sure that most of us on this committee can agree that financial regulators play an important role. I expect that most of us will also agree that financial regulations are best administered when there is the appropriate and necessary balance between Congress, the industry, and regulators. As one of you has testified, ``Significant disruptions to our banking system almost always trigger legislation designed to address the problems that led to those events as they are perceived at the time. Later on, with the benefit of hindsight, it often becomes apparent that our bank regulatory system has become unnecessarily complex and constraining, whether due to the remedial legislation or to the normal evolution of banking services and markets.''    In fact, as elected Representatives, we should not only be doing anything within our constitutional authority to address any issues that can trigger serious disruptions to our banking system, but we should also be doing everything in our power to prevent bailouts with taxpayer dollars.    The Financial Stability Oversight Council, also known as the FSOC, and the Office of Financial Research, more commonly known as the OFR, were created by the Dodd-Frank Wall Street Reform and Consumer Protection Act. The question for our hearing today is how we can improve the function and the ability of the FSOC and the OFR to achieve their statutory mission by enacting reform that recognizes the importance of congressional oversight to enhance transparency and accountability of these government-created entities to allow for better stakeholder participation.    If we agree that this committee should be working with both the financial services industry and regulators to prevent future crises and bailouts, and most importantly, to better protect consumers and taxpayers, we should also be able to agree that minor changes at the FSOC and the OFR will not only enhance their ability to perform, but would create a more open environment where the benefits and the costs of FSOC's actions can be examined and debated in the open.    H.R. 3340, the FSOC Reform Act, reaffirms the constitutional principle of checks and balances. Congress has and should have responsibility for oversight of government-created institutions to ensure that the regulation these institutions put in place actually help and not harm Americans.    FSOC and OFR are no exception. I believe the FSOC Reform Act will provide am important and necessary check and balance, and with appropriate congressional oversight and enhanced transparency, the FSOC and the OFR will be better able to perform for our financial industry and for our consumers.    And with that, I would ask Dr. Kupiec, it is a very simple bill, can you tell me, going to this argument about independence--which, by the way, we are dealing with an organization that we have just heard testimony, you have the Secretary of the Treasury who sits on it, sits on the FSB. You literally have every one of these heads of these agencies, the 10 voting members are appointed by the President, and I expect they are card-carrying Democrats. So I don't know how you take the political aspect out of this institution.    Dr. Kupiec, if the OFR is still going to be able to collect the assessments, how would this impact, if we are not talking about budgetary constraints, we are just talking about an appropriations process, how would this impact, if at all, the independence, the so-called independence of this agency to do its job?</t>
   </si>
   <si>
@@ -634,9 +580,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman. I appreciate the conversation we are having about regulatory relief for our local Main Street institutions.    I would like to turn a little focus, Mr. Ireland, if I could--when you appeared before this committee in June, we had the opportunity to discuss a piece of bipartisan legislation that I had introduced, H.R. 1660, the Federal Savings Association Charter Flexibility Act. As you may recall, the bill permits a Federal savings association to elect to operate subject to supervision by the Office of the Comptroller of the Currency with the same rights and duties of a national bank.    You spoke favorably about the bill, stating that it would save time and money, streamline our regulatory system, and would appropriately balance caution and restraint with the ability to innovate and to provide financial services to consumers and businesses. Am I correct in understanding that you still hold those views?</t>
   </si>
   <si>
@@ -694,9 +637,6 @@
     <t>412447</t>
   </si>
   <si>
-    <t>Frank C. Guinta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guinta. Thank you, Mr. Chairman.    I would also like to thank the panel for the discussion today of these legislative initiatives.    I have two areas of focus, one very quickly on H.R. 2987 for Mr. Ireland. Can you specifically state how many institutions H.R. 2987 will benefit at present?</t>
   </si>
   <si>
@@ -727,9 +667,6 @@
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman.    I want to join the chorus of support for H.R. 2209. I thank Mrs. Maloney for her work on this legislation. I want to thank both Chairman Neugebauer and Chairman Hensarling for their willingness to bring this bill forward. Others have talked about it, so I won't repeat the statements made by others, but the bill is aimed at this remarkable situation that we have where Federal banking regulators have excluded all American municipal bonds from being treated as high-quality liquid assets under the LCR rule, creating the remarkable situation where not only corporate bonds, but certain foreign subsovereign bonds qualify for liquid assets when American municipal bonds don't qualify.    By the way, I should apologize for my voice. I was part of the 12th man at the Colts-Patriots game this week. We are proud of our Colts, and obviously disappointed in the outcome.    That approach, as others have testified, doesn't make any sense. These are great assets. They are among the safest investments in the world. They are often not traded because people want to keep them once they invest in them, but they are highly liquid in the sense that in times of financial crisis, folks can flip them, if needed, as others have also testified, by discouraging these bonds from being treated in the way that reflects their true value. It drives up the cost of borrowing, which doesn't make any sense.    I want to direct my question to Mr. Kupiec and potentially Mr. Ireland, not to go over what others have said, but maybe to make sure we get it on the record. Do you see any reason why these assets should be discounted or why the Fed, for example, should--because, as you know, the Fed has come up with this rather Byzantine way of looking at it--do you see any reason why those assets should be discounted or should they be treated as face value?</t>
   </si>
   <si>
@@ -757,9 +694,6 @@
     <t>412461</t>
   </si>
   <si>
-    <t>Steve Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. I thank the chairman for allowing me to sit in on this panel. I am not on this subcommittee, so I appreciate the opportunity to be here.    I appreciate the witnesses for sticking with us for a long time and a lot of questioning. I think the bills today are a lot of commonsense bills. Something Dr. Kupiec just said really made me think, as we were talking about H.R. 2209.    Dr. Kupiec, why do we have one set of accounting principles?</t>
   </si>
   <si>
@@ -815,9 +749,6 @@
   </si>
   <si>
     <t>412392</t>
-  </si>
-  <si>
-    <t>Marlin A. Stutzman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stutzman. Thank you, Mr. Chairman. And I appreciate the witnesses being here today. I apologize for being late and catching up here on a couple of things.    But I want to talk a little bit about--I don't know if you all talked about the municipal bonds already, but if you have, I will move over to H.R. 2473, the Preserving Capital Access and Mortgage Liquidity Act of 2015. Can some of you talk a little bit about why H.R. 2473 is necessary and related to the community financial institution definitions, if any of you could be able to discuss that a little bit?</t>
@@ -1261,11 +1192,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1285,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1313,11 +1240,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1337,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1365,11 +1288,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1389,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1417,11 +1336,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1441,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1469,11 +1384,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1493,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1521,11 +1432,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1545,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1573,11 +1480,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1597,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1625,11 +1528,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1649,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1677,11 +1576,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1701,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1729,11 +1624,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1753,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1781,11 +1672,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1805,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1831,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1857,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1883,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1909,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1935,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1961,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1987,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2013,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2041,11 +1912,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2065,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2091,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2117,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2143,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2169,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2195,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2221,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2247,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2273,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2301,11 +2152,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2325,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2351,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2377,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2403,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2429,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2455,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2481,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2509,11 +2344,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2533,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2559,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2585,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2611,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2637,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2663,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2689,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2715,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2741,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2767,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2793,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2819,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2845,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2873,11 +2680,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2897,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2923,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2949,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2975,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3001,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3029,11 +2824,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3053,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3079,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3105,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3131,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3157,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3183,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3209,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3235,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3261,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3289,11 +3064,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3313,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3339,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3365,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3393,11 +3160,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3417,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
-      </c>
-      <c r="G85" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3443,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3469,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3495,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3521,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3547,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3573,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3599,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3625,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3651,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3677,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
-      <c r="H95" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3703,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3729,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3757,11 +3496,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3781,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
-      </c>
-      <c r="G99" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3807,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3833,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
-      </c>
-      <c r="G101" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3859,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3885,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
-      </c>
-      <c r="G103" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3911,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3937,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3965,11 +3688,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3989,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4015,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4041,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4067,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4093,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4119,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4145,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4173,11 +3880,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4197,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
-      </c>
-      <c r="G115" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4223,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4249,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G117" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4275,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4301,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
-      </c>
-      <c r="G119" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4327,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4353,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
-      </c>
-      <c r="G121" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4379,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4405,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4431,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4457,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4483,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4509,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>148</v>
-      </c>
-      <c r="G127" t="s">
-        <v>149</v>
-      </c>
-      <c r="H127" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4537,11 +4216,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4561,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
-      </c>
-      <c r="G129" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4587,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4613,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
-      </c>
-      <c r="G131" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4639,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4665,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
-      </c>
-      <c r="G133" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4691,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4717,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4743,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4769,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4795,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4821,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4847,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4875,11 +4528,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4899,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>164</v>
-      </c>
-      <c r="G142" t="s">
-        <v>165</v>
-      </c>
-      <c r="H142" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4927,11 +4576,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4951,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>181</v>
-      </c>
-      <c r="G144" t="s">
-        <v>182</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4977,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5003,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>181</v>
-      </c>
-      <c r="G146" t="s">
-        <v>182</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5031,11 +4672,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5055,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
-      </c>
-      <c r="G148" t="s">
-        <v>188</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5081,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5107,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
-      </c>
-      <c r="G150" t="s">
-        <v>188</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5133,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5159,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>187</v>
-      </c>
-      <c r="G152" t="s">
-        <v>188</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5185,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5211,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>187</v>
-      </c>
-      <c r="G154" t="s">
-        <v>188</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5239,11 +4864,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5263,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>187</v>
-      </c>
-      <c r="G156" t="s">
-        <v>188</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5291,11 +4912,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5315,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>199</v>
-      </c>
-      <c r="G158" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5341,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5367,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>199</v>
-      </c>
-      <c r="G160" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5395,11 +5008,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5419,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>205</v>
-      </c>
-      <c r="G162" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5445,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5471,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>205</v>
-      </c>
-      <c r="G164" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5497,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5523,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>205</v>
-      </c>
-      <c r="G166" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5549,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5575,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>205</v>
-      </c>
-      <c r="G168" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5601,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5627,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>205</v>
-      </c>
-      <c r="G170" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5653,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5679,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>205</v>
-      </c>
-      <c r="G172" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5705,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5731,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>205</v>
-      </c>
-      <c r="G174" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5757,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5783,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>205</v>
-      </c>
-      <c r="G176" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5809,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>24</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5835,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
-      </c>
-      <c r="G178" t="s">
-        <v>206</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5863,11 +5440,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5887,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>225</v>
-      </c>
-      <c r="G180" t="s">
-        <v>226</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5913,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5939,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>225</v>
-      </c>
-      <c r="G182" t="s">
-        <v>226</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5965,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5991,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>225</v>
-      </c>
-      <c r="G184" t="s">
-        <v>226</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6017,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6043,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>225</v>
-      </c>
-      <c r="G186" t="s">
-        <v>226</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6069,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6097,11 +5656,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6121,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>236</v>
-      </c>
-      <c r="G189" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6147,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6173,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
-      </c>
-      <c r="G191" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6199,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
-      </c>
-      <c r="G192" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6225,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>236</v>
-      </c>
-      <c r="G193" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6251,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6277,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>236</v>
-      </c>
-      <c r="G195" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6305,11 +5848,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6329,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>246</v>
-      </c>
-      <c r="G197" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6355,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6381,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
-      </c>
-      <c r="G199" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6407,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6433,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>246</v>
-      </c>
-      <c r="G201" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6459,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6485,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>246</v>
-      </c>
-      <c r="G203" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6511,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6537,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>246</v>
-      </c>
-      <c r="G205" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6563,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6589,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>246</v>
-      </c>
-      <c r="G207" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6615,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6641,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>246</v>
-      </c>
-      <c r="G209" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6667,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6693,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>246</v>
-      </c>
-      <c r="G211" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6719,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6745,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>246</v>
-      </c>
-      <c r="G213" t="s">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6773,11 +6280,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6797,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>266</v>
-      </c>
-      <c r="G215" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6823,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6849,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>266</v>
-      </c>
-      <c r="G217" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6875,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6901,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>266</v>
-      </c>
-      <c r="G219" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6927,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6953,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>24</v>
-      </c>
-      <c r="G221" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6979,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>266</v>
-      </c>
-      <c r="G222" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7005,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>24</v>
-      </c>
-      <c r="G223" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7031,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>266</v>
-      </c>
-      <c r="G224" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7057,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>24</v>
-      </c>
-      <c r="G225" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7083,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>266</v>
-      </c>
-      <c r="G226" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7109,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>24</v>
-      </c>
-      <c r="G227" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7135,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>266</v>
-      </c>
-      <c r="G228" t="s">
-        <v>267</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7163,11 +6640,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Examining Legislative Proposals to Reduce Regulatory Burdens on Main Street Job Creators.''    Before I begin, I would like to thank the witnesses for traveling to 2128 Rayburn, and making yourselves available for our questions. I also ask unanimous consent that any members of the full Financial Services Committee who are not members of the subcommittee be allowed to participate in today's hearing.    Without objection, it is so ordered.    I now recognize myself for 3 minutes to give an opening statement.    Good morning. Today, we continue the subcommittee's focus on providing regulatory relief for Main Street job creators. Throughout this Congress, we have seen examples and heard testimony about how regulatory impediments prohibit job creation, cause consolidation of community financial institutions, and decrease the choices for our consumers.    Some of the proposals we have already considered have received bipartisan support. Many of the bills before this subcommittee today are no different. For example, Representative Stivers introduced H.R. 2121, the SAFE Transitional Licensing Act, which will ensure that workers who originate mortgages at depository institutions are able to move to nondepository institutions with a minimal amount of work disruption. This bill has very broad bipartisan support on the committee and in the House.    H.R. 2473, introduced by Ranking Member Clay and I, will ensure that small credit unions are able to more easily access the secondary mortgage market to ensure their members get competitive prices and robust credit availability. This bill is especially important in light of the Federal Housing Finance Agency's (FHFA's) proposed rule changing the membership requirements of the Federal Home Loan Banks.    While not yet bipartisan, H.R. 3340, from Representative Emmer, is another important bill to be considered today. It would provide much needed congressional control over the budget of the Financial Stability Oversight Council (FSOC). While I may not always agree with FSOC, it is perfectly positioned to help coordinate multi-agency regulatory issues. I have become increasingly disappointed that FSOC has failed to provide that coordination and has instead become dominated by the Treasury and the Federal Reserve.    Some will argue that this bill will undercut FSOC's work, but that is really not the case. H.R. 3340 preserves the funding stream for FSOC in the Office of Financial Research (OFR), but requires congressional approval on how they spend the money.    Several other great bills are before our committee today to demonstrate the hard work of several of our members, and I look forward to hearing from our witnesses about how these bills will work from a mechanical standpoint, and how they will also help us achieve the policy objective of reducing regulatory burdens for our job creators.    I now recognize the ranking member of the subcommittee for as much time as he may consume.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Wm.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    And thank you to each of the witnesses for your insight and for your testimony today.    Much of our work in this subcommittee has been dedicated to finding common ground on regulatory relief. We have been partially successful in doing so, and today's hearing includes a number of proposals that provide real relief for Main Street, including H.R. 2473, as the chairman mentioned, a proposal that we have cosponsored.    I would caution my colleagues against proposals that have failed to attract bipartisan support and that undermine the implementation of the Dodd-Frank Act, like H.R. 2896 and H.R. 3340, or like H.R. 2287, which seeks to pressure the National Credit Union Association (NCUA) into shrinking its budget just as credit unions become more complex. Regulatory relief is a worthy objective, but it should always be balanced against broader considerations, such as ensuring the safety and soundness of our financial system, protecting the independence of our financial regulators, and supporting the implementation of Dodd-Frank.    Thank you again to each of today's witnesses. And I yield back the remainder of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412405</t>
   </si>
   <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I would like to thank the ranking member for holding this hearing.    Reducing the regulatory burden for Main Street job creators like small banks and credit unions is certainly an important topic and should continue to be a consistent bipartisan goal of this committee. I would like to thank our witnesses for taking the time to appear before the committee today as well.    I ask for unanimous consent to enter into the record letters from the American Bankers Association, the Independent Community Bankers of America, the Credit Union National Association, and the National Association of Federal Credit Unions supporting the Taking Account of Institutions with Low Operational Risk (TAILOR) Act.</t>
   </si>
   <si>
@@ -82,18 +103,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kupiec</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kupiec. Chairman Neugebauer, Ranking Member Clay, and distinguished members of the subcommittee, thank you for convening this hearing. It is an honor for me to testify here today.    My testimony will consider the merits of seven separate bills that are currently under consideration. In my opinion, none of these bills will magnify financial sector risks, nor will any of these bills dilute the Dodd-Frank Act's requirement for heightened supervision and regulation of systemically important financial institutions (SIFIs).    Many of these bills propose commonsense improvements to existing legislation. For example, the SAFE Transitional Licensing Act of 2015 creates a 120-day grace period during which a licensed mortgage loan originator may continue originating loans while changing jobs and applying for a new license.    The National Credit Union Administration Budget Transparency Act will approve accountability and management of the NCUA by requiring public disclosure and soliciting comments as part of the annual budgeting process.    The Community Bank Capital Clarification Act amends Section 171 of the Dodd-Frank Act so that all bank holding companies with less than $15 billion in consolidated assets will be exempt from the Dodd-Frank Act mandatory holding company leverage and risk-based capital regulations. Bank holding companies below the $15 billion threshold as of December 2009 were exempted in the Dodd-Frank Act because they were not seen as a threat to financial stability. I do not see why similarly sized institutions would pose a threat today.    The Preserving Capital Access and Mortgage Liquidity Act of 2015 allows credit unions under a billion dollars to join the Federal Home Loan Bank (FHLB) System without meeting the FHFA's proposed mortgage threshold rules. This amendment would merely put the FHLB membership requirements for credit unions on par with those of small banks.    The Financial Stability Oversight Council Reform Act places the Office of Financial Research under the normal congressional appropriations and oversight process. The OFR should have been subject to these procedures from the beginning.    Two proposed bills are more involved and require a bit more explanation. The TAILOR Act of 2015 requires bank regulatory agencies to modify their supervision and regulation practices so that they are appropriate for the risk profile of smaller institutions. There is a legitimate concern in Congress that the Dodd-Frank Act includes new heightened standards for supervision and regulation that were intended for larger institutions but instead are being applied to all regulated depository institutions.    The TAILOR Act requires regulators to modify their one-size-fits-all approach to regulation and reduce regulations and processes that are burdening smaller institutions with unnecessary and unproductive compliance costs. Regulators must explicitly recognize the need to tailor regulations and supervisory processes and reflect this tailoring in their examination manuals and notices of proposal rulemaking.    The final bill I will discuss, H.R. 2209, requires the banking agencies to amend their Liquidity Coverage Ratio (LCR) rule to give low-risk, highly liquid, State and municipal bond obligations treatment that is consistent with their liquidity characteristics. The LCR requires large banks and bank holding companies to hold a sufficient quantity of highly liquid assets (HQLA) to enable them to survive a hypothetical month-long bank run. The LCR has specific requirements that determine which bank assets count as HQLA. The final LCR rule does not recognize State or municipal bonds as HQLA, so they have no value toward satisfying the LCR requirement.    Many public comment letters recommended that investment grade liquid, State, and municipal securities be included in HQLA. The reasons for counting State and muni securities in HQLA include the fact that many of these bonds are at least as liquid as the corporate bonds that are eligible for HQLA treatment, many have higher ratings and better liquidity than some of the foreign bonds that are also eligible for Level 1 and Level 2 assets in the HQLA, and many asset-specific characteristics for the Level 2 and Level B requirements are met by many State and municipal bonds.    There is concern that the exclusion of State and municipal bonds from the definition of HQLA will damage muni market liquidity as banks will no longer favor holding these issues. In May 2015, the Federal Reserve Board proposed amending its LCR rule to recognize State and municipal bonds as Level 2 assets, which would count as HQLA.    H.R. 2209 will require the Federal banking agencies to revise the final LCR rule to include qualifying State and municipal bonds as Level 2A assets in the definition of HQLA. This change is appropriate and consistent with the public interest. I would go further and recommend that State and municipal bonds that satisfy the characteristics required by Level 2B assets should also be recognized in HQLA.    Thank you, and I look forward to your questions.    [The prepared statement of Dr. Kupiec can be found on page 50 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. Thank you.    Mr. Ireland, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ireland. Thank you, Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee. I am pleased to be here today. My name is Oliver Ireland. I am a partner in the financial services practice at Morrison &amp; Foerster here in town and previously was an Associate General Counsel with the Federal Reserve Board. I was with the Federal Reserve System for 26 years before joining private practice. I currently have more than 40 years experience dealing with bank regulatory issues.    Today, the subcommittee is considering seven different proposals that cover a broad range of issues. My testimony will touch on each of them. I look forward to questions and to drilling down on details at the subcommittee's pleasure.    The TAILOR Act, H.R. 2896, would address the problem of regulatory burdens on smaller institutions due to requirements designed for larger and more complex institutions. Many of the provisions of the Dodd-Frank Act tried to differentiate between larger and smaller institutions, some of them in the statute, some of them in the regulations, but there is nevertheless a trickle-down effect on smaller institutions.    Smaller institutions remain subject to some very complex rules, including things such as the Volcker Rule, and while in practice it shouldn't apply to any of their activities, they still have to understand the Rule in order to be sure that it doesn't. So I think the TAILOR Act is another step to try to address regulatory burden on smaller institutions. I think it is an important step.    H.R. 2987, the Community Bank Clarification Act, would expand the grandfather for capital instruments for under-$15 billion institutions. This is a technical change to the current statute. Drafting legislation, particularly in a response to a crisis such as the recent financial crisis, and creating the Dodd-Frank Act is hard work. There are bound to be technical issues. This is one of the technical issues, it is a cleanup, and I can't see why there should be any controversy with respect to that provision.    H.R. 2473, Preserving Capital Access and Mortgage Liquidity, expands credit unions' access to Federal Home Loan Bank membership and Federal Home Loan Bank borrowing and should promote credit union lending to smaller businesses, smaller farms, and community development organizations, and I think that is also desirable.    H.R. 2121 is the SAFE Transitional Licensing Act and deals with mortgage originator licensing under the SAFE Act and facilitates the movement of mortgage originators, individuals, from depository institutions to nondepository institutions and between States. I understand that there is perhaps a subsequent discussion draft of that bill, and there may be technical issues that need to be worked out, but I think the thrust of the proposal is good and will improve competition among mortgage originators, and competition improves quality.    H.R. 2287 deals with budgetary transparency for the NCUA. I understand that bank regulators don't necessarily like to have their budgets scrutinized. I lived as a bank regulator for a long time, and I think at least the bank regulatory budget ought to be something that people are aware of and understand the purposes of and understand what is going on, and I am for budgetary transparency.    H.R. 2209 deals with municipal obligations under the Liquidity Coverage Ratio. I think that the failure to include municipal obligations as high-quality liquid assets in the current rules will adversely affect the liquidity of those obligations and will almost inevitably adversely affect the pricing of those obligations, making it more difficult and more expensive for States and municipalities to raise funding going forward. And as my colleague Dr. Kupiec pointed out, the risks of expanding high-quality liquid assets to pick up these assets are minimal.    The Financial Stability Oversight Council Reform Act again is budgetary transparency and budgetary accountability for the Office of Financial Research. I think the people of the United States have a right to know how their money is being spent and oversight over that money, unless there are serious issues that the political process will impair those functions, which I don't see here.    Thank you. I look forward to your questions.    [The prepared statement of Mr. Ireland can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. I thank the gentleman.    Now, Mr. Stanley, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Stanley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stanley. Thank you. Chairman Neugebauer, Ranking Member Clay, and members of the subcommittee, thank you for the opportunity to testify before you today.    AFR opposes H.R. 2287, H.R. 2896, and H.R. 3340. We also have some concerns regarding H.R. 2209. We have no views on the other bills under consideration today.    The TAILOR Act would mandate that Federal banking regulators tailor regulations to the risk profile of regulated institutions. We view the specific requirements in this legislation as unnecessary, as regulators are already scaling rules to the business model of affected institutions.    We also view several of the provisions in this bill as potentially harmful. H.R. 2896 requires Federal financial regulators to limit the regulatory impact costs and burdens to regulated institutions. This broad and vague mandate prioritizes reducing the cost of regulation over the offsetting benefits gained for consumers and the general public. It would apply to all regulated entities and is not limited to community banks.    While the requirements in H.R. 2896 sound reasonable in the abstract, their practical effect would be to layer additional requirements on an already lengthy and cumbersome rulemaking process and to create numerous litigation opportunities for the financial industry to challenge regulation in court based on the extremely broad and vague mandates in this legislation.    H.R. 3340 would eliminate the independent funding for the Financial Stability Oversight Council and its research arm, the Office of Financial Research, and also require that the OFR provide an advance comment period prior to issuing any report.    The FSOC and the OFR were created as a direct response to the grave weaknesses in the financial regulatory system that were revealed in the 2008 financial crisis. The inability to provide unified and coherent oversight of nonbank financial institutions, as well as the financial system as a whole, contributed directly to the financial crisis of 2008 and its disastrous impact on the U.S. and world economy.    Political independence is crucial to the work of the FSOC and the OFR. While there are many checks and balances built into the process of FSOC designation, including multiple appeal opportunities and the ability to challenge FSOC designation in court, the potential micromanagement of financial risk assessment through the congressional appropriations process should not be one of them.    The importance of impartial risk assessment is the reason why all of our major bank regulators, including the FDIC, the OCC, the Federal Reserve, and the CFPB, are independently funded outside of the congressional appropriations process.    The bill's requirement that the OFR solicit public comment prior to issuing reports on financial risk would also limit the independence of the agency and its ability to objectively assess risk, free of outside pressures.    H.R. 2287 would require the National Credit Union Administration to make drafts of their agency budget publicly available for comment and to respond to or incorporate such public comments in their final agency budget. We believe the budgetary requirement in H.R. 2287 is inappropriate for a public regulatory entity. The NCUA has the crucial role of safeguarding the taxpayer guarantee of publicly insured credit union deposits. It requires independence from those it regulates.    While credit unions certainly did not cause the 2008 crisis, it is still important to remember that significant public action was required during that period to rescue the credit union system. This included the seizure and closure of several large credit unions and the issuance of over $30 billion in government-guaranteed bonds to stabilize the system.    H.R. 2209 would mandate that banking regulators classify investment grade municipal debt obligations as liquid assets under the Liquidity Coverage Ratio. AFR shares concerns regarding the treatment of municipal debt in the LCR rule and raised similar concerns in our comment to regulators. However, we believe that given existing regulatory efforts to address this issue, and the apparently quite limited impact of the LCR rule on the municipal debt market, it is more appropriate to leave this issue to regulatory action rather than act through statute.    In relation to the FSOC, which is related to the H.R. 3340 bill being discussed today, I would also like to mention another piece of legislation, H.R. 1550, that while not included in today's legislation, may also be marked up by the committee soon. This legislation would at least double the time it takes for the Council to designate a large financial firm from the current 2 years to at least 4 years, and it could create a situation where a large financial firm that is skilled at manipulating the process could delay increased regulatory oversight almost indefinitely.    FSOC designation is already a multiyear process that includes some 10 major steps and multiple opportunities for appeal. Given the importance of the FSOC, Congress should reject legislation like H.R. 1550 that would bog down operations even further.    Thank you.    [The prepared statement of Mr. Stanley can be found on page 58 of the appendix.]</t>
   </si>
   <si>
@@ -157,6 +187,12 @@
     <t>400313</t>
   </si>
   <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Stevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman.    I appreciate each of you and your testimony.    Now, one of the things that we have been wrestling with in our State is that the Dodd-Frank regulations were intended for the large institutions but they bleed down to the smaller ones because it's impossible in the mindset of regulators to have two different mindsets when you walk in, so they are going to hold to the tighter regulations.    Mr. Kupiec, are you familiar with any of the effects that this is having on financial institutions in the smaller rural States, ones without the big megabanks?</t>
   </si>
   <si>
@@ -190,6 +226,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Neugebauer and Ranking Member Clay, for holding this hearing.    And thank you to those distinguished panel members for your appearance and testimony here today.    Small businesses and Main Street are the lifeblood of our economy. We should be doing everything we can to ensure that Main Street America is able to prosper.    Sadly, however, this Congress is going down a path fundamentally hurtful to Main Street. While this committee examines legislative proposals aimed at helping Main Street, the House today considers H.R. 692, the Pay China First Act. This H.R. 692 is nothing but default by another name. Moreover, adding insult to injury, H.R. 692 mandates that we pay foreigners instead of American servicemembers and veterans.    Rather than acting responsibly, this Congress prefers to play Russian roulette with our economy and the lives of millions of Americans. Raising the debt ceiling does not increase the deficit nor authorize new spending. It merely pays the bills this Congress has already authorized. Raising the debt ceiling is the only responsible thing to do, in my opinion.    My first question goes to Paul Kupiec. H.R. 2209 would consider muni bonds that are liquid and readily marketable, as well as investment grade to be treated as Level 2A liquid assets. The banking regulators appear to have been unable to fairly or effectively differentiate between municipal securities.    So by skirting the regulatory process, is Congress essentially picking winners and losers between financial asset holdings for banks and financial institutions?</t>
   </si>
   <si>
@@ -217,6 +259,12 @@
     <t>412292</t>
   </si>
   <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman.    I would like to start out with talking about H.R. 2987, the Community Bank Capital Clarification Act, and I think basically it is kind of a unique piece of legislation, because I think it addresses a unique problem here from the standpoint that within Dodd-Frank, there is a problem that has arisen with regard to trust-preferred securities that are used as Tier 1 capital or count toward it.    Dodd-Frank stuck in there a date of any bank holding company that is $15 billion or more at that point in time goes into a separate set of rules and those under don't. And what happens if the institution gets rid of its Tier 1 trust-preferred securities is they get to fall back, and there is no provision for that to allow to happen, so they are kind of stuck in limbo here, is my understanding.    And so, Mr. Ireland, I want to ask you if my interpretation of that is correct, and what kind of institutions are going to benefit from this bill?</t>
   </si>
   <si>
@@ -262,6 +310,9 @@
     <t>400363</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you very much, Mr. Chairman.    These seven legislative proposals that we are considering today serve, in my opinion, as a positive step to help reduce many of the regulatory burdens. But I am particularly supportive of H.R. 2287, which would require the National Credit Union Administration Board to submit a detailed draft of their budget to the Federal Register for comment and hold public hearings.    Now, I think it was about a month or so ago that NCUA Chair Debbie Matz appeared before this committee and gave us some very interesting testimony. But the record will reflect that her testimony revealed a very severe need for our particular legislation, because our legislation would simply have the NCUA be held accountable for its budget and would allow the credit unions that they represent to take a more active role in its budget decisions.    And I believe that our bill, with Representative Mulvaney providing the leadership, will do just that. It is very necessary, from her testimony, to really show how crucial it is to do this so that we can build a more positive relationship between the NCUA and the credit unions that it represents.    And so I wanted to make that clear, Mr. Chairman, because this is one time that a hearing has produced a great need for legislation, and this committee has, under the leadership of Representative Mulvaney, provided just that leadership, and I am proud to work with him on it.    Mr. Ireland, I am concerned about smaller banking institutions and the larger banking institutions. Could you explain more about the stratification that smaller banking institutions experience regarding trying to implement risk-based models compared to our larger banking institutions?</t>
   </si>
   <si>
@@ -283,6 +334,12 @@
     <t>412474</t>
   </si>
   <si>
+    <t>Mulvaney</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank the chairman and the ranking member. I also thank Mr. Scott for his input on H.R. 2287, which I want to review very briefly. I wish Mr. Hinojosa was still here. He had asked a question earlier about the NCUA budget from 2001 through 2009, and I think he implied in his question that the budget had gone down to the point where the NCUA was not able to deal with the financial crisis.    I am looking at the numbers from 2002 through 2009, and they didn't go down, and I haven't heard anybody here claim that they were unable to deal with the financial crisis. In fact, everything I have heard about the credit unions is they weren't really part of the financial crisis to begin with, that they may have faced some challenges that came with the larger overall declining economy, but certainly they were not at the epicenter of the difficulties.    I wish that he was here to hear that because I think that concern--and the reason he raised it, by the way, for those of you who follow H.R. 2287, is that the NCUA is now claiming that if we have to go back to the system we had between 2001 and 2009, they won't have enough money, that additional insight and oversight by the folks who pay the bills will effectively drive the regulator out of business.    That is simply not the case with the historical numbers from the period of time when they used to do that. They used to have that type of oversight, from 2001 to 2009, and when Chair Matz came in, she stopped that process. So just to set the record straight, we don't have a problem historically. There is no correlation between oversight and participation and the NCUA not being able to do its job.    Now with that, there is another complaint, Mr. Ireland, that Chair Matz is making now, which is that if you go back to the old system it will cause the agency to--will jeopardize the agency's policy independence. How would you respond to that, sir?</t>
   </si>
   <si>
@@ -328,6 +385,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman.    And I thank each of you for being with us today.    I would like to thank Congressman Emmer for his role on the FSOC reform bill, particularly as it relates to the budget process or lack thereof and the need for greater transparency and accountability.    Dr. Kupiec, do you believe that there is any limitation at all in the funding opportunities for FSOC and OFR?</t>
   </si>
   <si>
@@ -373,6 +436,12 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman.    Mr. Chairman, we often speak of providing regulatory relief for small banks, and I think if we are serious about it we should start by making quick fixes wherever possible where we can offer some immediate relief. So I introduced H.R. 2987 along with Representative Maloney, Representative King, and Representative Luetkemeyer, to provide a technical correction to Section 171 of Dodd-Frank to allow small banks with less than $15 billion in assets to be able to continue to use their trust-preferred status as part of their Tier 1 capital.    The intent of this section of Dodd-Frank was to make sure that the large banks have high-quality capital while providing an exemption for smaller banks with assets under $15 billion. But I believe it was a mistake to set in law a fixed date of December 31, 2009, as a permanent judgment date for determining which banks had less than $15 billion in assets to qualify regardless of what happened to the size of the institutions in the future.    This is inconsistent with other legislation that uses asset thresholds like the CFPB's $10 billion threshold or the SIFIs $50 billion threshold. All these thresholds are based on the size of the institution today. It is also unfair to institutions that are currently as small as $6 billion today but are still regulated like large banks with over $15 billion.    This bill would allow banks that have assets of less than $15 billion today to be treated fairly and therefore be eligible for the exemption that was meant to be available for such small institutions. And in this bill we make sure that the intent of Dodd-Frank is entirely preserved, so if the bank's assets go back to above $15 billion, then they lose that exemption. So this bill would provide relief for institutions that go below $15 billion for as long as they remain below that level.    This is a simple fix, Mr. Chairman, and is also logical, and these banks need the relief, and they need relief now.    Mr. Chairman, I hope we can have this included in our next markup and approve this legislation as soon as possible. And I am pleased that this is one of the pieces of legislation that we were able to do in a completely bipartisan manner. We have over 40 cosponsors, about half and half: 50 percent Republicans; and 50 percent Democrats. And I want to thank my colleagues on both sides of the aisle for their hard work on this legislation.    Lastly, I believe that high-quality municipal bonds, some of which are more liquid and less risky than highly rated corporate bonds, should be included in the definition of Level 2A high-quality liquid assets in the LCR. This is critically important for cities like my little City--New York, a little, small City on the coast--and is another important improvement that we need to approve.    So in the time I have left, I will just ask to the witnesses whether or not you think that banks should be regulated today based on the size of their assets back in 2009, or do any of the witnesses believe that banks under $15 billion pose a systemic risk to the financial services industry?    Gentlemen?</t>
   </si>
   <si>
@@ -424,6 +493,12 @@
     <t>400251</t>
   </si>
   <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Maloney. I want to thank you for holding this hearing on these important bills. And I have two that I am particularly concerned about.    I would like to ask Paul Kupiec about H.R. 2209, which Mr. Messer and I introduced earlier this year, that would level the playing field for our cities and States by requiring the banking regulators to treat certain municipal bonds as liquid assets, just like corporate bonds. And as a former city council member, I know the importance of muni bonds to allow States and cities to finance infrastructure and schools, and to pave roads.    Unfortunately, in the banking regulators liquidity rule, which requires bank to hold a minimum amount of liquid assets, the regulators chose to allow corporate bonds to qualify as liquid assets but completely excluded municipal bonds, even municipal bonds that are just as liquid as corporate bonds. And this makes no sense and threatens to raise borrowing costs for municipalities across this country.    The Fed has already recognized this error and is amending its rule to allow certain muni bonds to count as liquid assets, but the OCC is still refusing to amend its rule and insists on favoring corporations over municipalities.    So I would like to specifically ask you, Mr. Kupiec, if you considered two identical bonds, same size, same maturity, same everything, both bonds are liquid enough to satisfy all of the liquidity criteria in the OCC's rule, but one bond was issued by a corporation, and one was issued by a local government, and under the OCC's rule the corporate bond would be considered a high-quality liquid asset, but the muni bond would not, even though they had the exact same liquidity, do you think that is a fair outcome?</t>
   </si>
   <si>
@@ -469,6 +544,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman.    And thanks to all our witnesses for being here today.    I am a small business owner in Texas. I am a car dealer. And you can imagine what I think of the CFPB and how they are issuing laws and so forth. But also it is quite evident that they have largely ignored congressional intent.    As a member of this subcommittee, I am proud to have cosponsored many of the proposals we are discussing today, including H.R. 2121, H.R. 2897, and H.R. 3340. All of these proposals will help reduce the regulatory burdens facing so many families and small businesses in America today, and again speaking of Main Street.    I want to take a second to focus on H.R. 3340, sponsored by my good friend, Congressman Emmer. His proposal, which ultimately brings the budgets for the Financial Stability Oversight Council and the Office of Financial Research under appropriations, will no doubt provide for greater transparency where it is sorely needed. My first question to you, Mr. Kupiec, is the following: Has the FSOC been transparent through the process of designating MetLife, Prudential, General Electric Capital, and American International Group as nonbank SIFIs?</t>
   </si>
   <si>
@@ -517,6 +598,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    We have a lot of bills under discussion today, and most of them are pretty good. The first is the Community Bank Capital Clarification Act, and I think that the importance of this bill, its fairness, could be illustrated by the fact that if you had two $14 billion institutions even 10, 20 years from now, they just happened to be at $14 billion apiece, and one of them would have one rule, but the other would have a different rule because back in 2009 it was $16 billion.    Obviously, we ought to treat identical banks identically, and if the bank is below the threshold it ought to be below the threshold. The idea that you would have a mark--I don't know what the mark would be on the forehead of the bank--because it was over the threshold decades ago would treat identical institutions in a nonidentical manner.    I have cosponsored the National Credit Union Administration Budget Transparency Act because I think it does make sense for an organization to publish its budget and to hear from folks who comment on it. There is some concern that all of the comments will be to tell the NCUA to do less regulation. People who raise that fear have never met anyone from the ICBA, but I am confident that the ICBA will have comments about the Credit Union Administration's budget.    I think the witnesses have already talked about the importance of allowing mortgage professionals to move from one job to another and to bring their skills. It is the unskilled mortgage professionals that can get us into trouble, and that is why I think Mr. Stivers has a good bill, the Safe Transitional Licensing Act of 2015.    Let's see, a fourth bill is Preserving Capital Access and Mortgage Liquidity. The FHFA says we need to fix this problem, we need to extend parity for credit unions under a billion dollars in assets, and I look forward to cosponsoring that bill.    And I would go on at length about H.R. 2209, Mr. Messer's bill to require the Federal banking agencies to treat certain municipal obligations as Level 2A liquid assets, but the gentlelady from New York did such an excellent job of explaining the importance of that bill that I don't have to.    I will ask the witnesses whether they have any comments on those four bills, and if not, I may shock my colleagues and yield back my time before I have gone over time.</t>
   </si>
   <si>
@@ -532,6 +619,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman.    With respect to H.R. 3340, Mr. Emmer's Financial Stability Oversight Council Reform Act, of which I am a cosponsor, and I appreciate the leadership of Mr. Emmer on this important transparency measure, my question to the witnesses is in response to Mr. Stanley's argument for the need for political independence. I believe Mr. Stanley's phrase was the reason why FSOC's funding is not subject to the appropriations process or congressional review of how these fees are used is the need for political independence.    Of course in the Declaration of Independence, Thomas Jefferson talked about the fact that governments are instituted among men deriving their just powers from the consent of the government. And I think Mr. Jefferson as a Founder of our country would be troubled to find that so many of the regulatory agencies in our country are not instituted among the American people based on the consent of the governed, but instead on this principle of the need for political independence. That, to me, resembles more the institutions that we saw in the Soviet Union instead of a democratic society where governing entities are subject to the consent of the people.    I would be interested to hear from the witnesses about Mr. Stanley's argument for the need for political independence and why more transparency is not a good idea.    Dr. Kupiec?</t>
   </si>
   <si>
@@ -565,6 +658,12 @@
     <t>412639</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    And I especially thank the panel for being here today.    I am sure that most of us on this committee can agree that financial regulators play an important role. I expect that most of us will also agree that financial regulations are best administered when there is the appropriate and necessary balance between Congress, the industry, and regulators. As one of you has testified, ``Significant disruptions to our banking system almost always trigger legislation designed to address the problems that led to those events as they are perceived at the time. Later on, with the benefit of hindsight, it often becomes apparent that our bank regulatory system has become unnecessarily complex and constraining, whether due to the remedial legislation or to the normal evolution of banking services and markets.''    In fact, as elected Representatives, we should not only be doing anything within our constitutional authority to address any issues that can trigger serious disruptions to our banking system, but we should also be doing everything in our power to prevent bailouts with taxpayer dollars.    The Financial Stability Oversight Council, also known as the FSOC, and the Office of Financial Research, more commonly known as the OFR, were created by the Dodd-Frank Wall Street Reform and Consumer Protection Act. The question for our hearing today is how we can improve the function and the ability of the FSOC and the OFR to achieve their statutory mission by enacting reform that recognizes the importance of congressional oversight to enhance transparency and accountability of these government-created entities to allow for better stakeholder participation.    If we agree that this committee should be working with both the financial services industry and regulators to prevent future crises and bailouts, and most importantly, to better protect consumers and taxpayers, we should also be able to agree that minor changes at the FSOC and the OFR will not only enhance their ability to perform, but would create a more open environment where the benefits and the costs of FSOC's actions can be examined and debated in the open.    H.R. 3340, the FSOC Reform Act, reaffirms the constitutional principle of checks and balances. Congress has and should have responsibility for oversight of government-created institutions to ensure that the regulation these institutions put in place actually help and not harm Americans.    FSOC and OFR are no exception. I believe the FSOC Reform Act will provide am important and necessary check and balance, and with appropriate congressional oversight and enhanced transparency, the FSOC and the OFR will be better able to perform for our financial industry and for our consumers.    And with that, I would ask Dr. Kupiec, it is a very simple bill, can you tell me, going to this argument about independence--which, by the way, we are dealing with an organization that we have just heard testimony, you have the Secretary of the Treasury who sits on it, sits on the FSB. You literally have every one of these heads of these agencies, the 10 voting members are appointed by the President, and I expect they are card-carrying Democrats. So I don't know how you take the political aspect out of this institution.    Dr. Kupiec, if the OFR is still going to be able to collect the assessments, how would this impact, if we are not talking about budgetary constraints, we are just talking about an appropriations process, how would this impact, if at all, the independence, the so-called independence of this agency to do its job?</t>
   </si>
   <si>
@@ -580,6 +679,12 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman. I appreciate the conversation we are having about regulatory relief for our local Main Street institutions.    I would like to turn a little focus, Mr. Ireland, if I could--when you appeared before this committee in June, we had the opportunity to discuss a piece of bipartisan legislation that I had introduced, H.R. 1660, the Federal Savings Association Charter Flexibility Act. As you may recall, the bill permits a Federal savings association to elect to operate subject to supervision by the Office of the Comptroller of the Currency with the same rights and duties of a national bank.    You spoke favorably about the bill, stating that it would save time and money, streamline our regulatory system, and would appropriately balance caution and restraint with the ability to innovate and to provide financial services to consumers and businesses. Am I correct in understanding that you still hold those views?</t>
   </si>
   <si>
@@ -637,6 +742,12 @@
     <t>412447</t>
   </si>
   <si>
+    <t>Guinta</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guinta. Thank you, Mr. Chairman.    I would also like to thank the panel for the discussion today of these legislative initiatives.    I have two areas of focus, one very quickly on H.R. 2987 for Mr. Ireland. Can you specifically state how many institutions H.R. 2987 will benefit at present?</t>
   </si>
   <si>
@@ -667,6 +778,12 @@
     <t>412540</t>
   </si>
   <si>
+    <t>Messer</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman.    I want to join the chorus of support for H.R. 2209. I thank Mrs. Maloney for her work on this legislation. I want to thank both Chairman Neugebauer and Chairman Hensarling for their willingness to bring this bill forward. Others have talked about it, so I won't repeat the statements made by others, but the bill is aimed at this remarkable situation that we have where Federal banking regulators have excluded all American municipal bonds from being treated as high-quality liquid assets under the LCR rule, creating the remarkable situation where not only corporate bonds, but certain foreign subsovereign bonds qualify for liquid assets when American municipal bonds don't qualify.    By the way, I should apologize for my voice. I was part of the 12th man at the Colts-Patriots game this week. We are proud of our Colts, and obviously disappointed in the outcome.    That approach, as others have testified, doesn't make any sense. These are great assets. They are among the safest investments in the world. They are often not traded because people want to keep them once they invest in them, but they are highly liquid in the sense that in times of financial crisis, folks can flip them, if needed, as others have also testified, by discouraging these bonds from being treated in the way that reflects their true value. It drives up the cost of borrowing, which doesn't make any sense.    I want to direct my question to Mr. Kupiec and potentially Mr. Ireland, not to go over what others have said, but maybe to make sure we get it on the record. Do you see any reason why these assets should be discounted or why the Fed, for example, should--because, as you know, the Fed has come up with this rather Byzantine way of looking at it--do you see any reason why those assets should be discounted or should they be treated as face value?</t>
   </si>
   <si>
@@ -694,6 +811,12 @@
     <t>412461</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. I thank the chairman for allowing me to sit in on this panel. I am not on this subcommittee, so I appreciate the opportunity to be here.    I appreciate the witnesses for sticking with us for a long time and a lot of questioning. I think the bills today are a lot of commonsense bills. Something Dr. Kupiec just said really made me think, as we were talking about H.R. 2209.    Dr. Kupiec, why do we have one set of accounting principles?</t>
   </si>
   <si>
@@ -749,6 +872,12 @@
   </si>
   <si>
     <t>412392</t>
+  </si>
+  <si>
+    <t>Stutzman</t>
+  </si>
+  <si>
+    <t>Marlin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stutzman. Thank you, Mr. Chairman. And I appreciate the witnesses being here today. I apologize for being late and catching up here on a couple of things.    But I want to talk a little bit about--I don't know if you all talked about the municipal bonds already, but if you have, I will move over to H.R. 2473, the Preserving Capital Access and Mortgage Liquidity Act of 2015. Can some of you talk a little bit about why H.R. 2473 is necessary and related to the community financial institution definitions, if any of you could be able to discuss that a little bit?</t>
@@ -1142,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1279,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,5477 +1301,6436 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G71" t="s">
+        <v>106</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G75" t="s">
+        <v>106</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G77" t="s">
+        <v>106</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G87" t="s">
+        <v>123</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G89" t="s">
+        <v>123</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G91" t="s">
+        <v>123</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G97" t="s">
+        <v>123</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G99" t="s">
+        <v>140</v>
+      </c>
       <c r="H99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G101" t="s">
+        <v>140</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G103" t="s">
+        <v>140</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G105" t="s">
+        <v>140</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
       <c r="H109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
       <c r="H111" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
       <c r="H113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G115" t="s">
+        <v>159</v>
+      </c>
       <c r="H115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
       <c r="H117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G119" t="s">
+        <v>159</v>
+      </c>
       <c r="H119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G121" t="s">
+        <v>159</v>
+      </c>
       <c r="H121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G123" t="s">
+        <v>159</v>
+      </c>
       <c r="H123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G129" t="s">
+        <v>176</v>
+      </c>
       <c r="H129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G131" t="s">
+        <v>176</v>
+      </c>
       <c r="H131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G133" t="s">
+        <v>176</v>
+      </c>
       <c r="H133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G135" t="s">
+        <v>176</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G137" t="s">
+        <v>176</v>
+      </c>
       <c r="H137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G139" t="s">
+        <v>176</v>
+      </c>
       <c r="H139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G142" t="s">
+        <v>176</v>
+      </c>
       <c r="H142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>166</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G144" t="s">
+        <v>194</v>
+      </c>
       <c r="H144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I144" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>166</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G146" t="s">
+        <v>194</v>
+      </c>
       <c r="H146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I146" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G148" t="s">
+        <v>201</v>
+      </c>
       <c r="H148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G150" t="s">
+        <v>201</v>
+      </c>
       <c r="H150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G152" t="s">
+        <v>201</v>
+      </c>
       <c r="H152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>171</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G154" t="s">
+        <v>201</v>
+      </c>
       <c r="H154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>171</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="G156" t="s">
+        <v>201</v>
+      </c>
       <c r="H156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="I156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>182</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G158" t="s">
+        <v>214</v>
+      </c>
       <c r="H158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>182</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G160" t="s">
+        <v>214</v>
+      </c>
       <c r="H160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I160" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>187</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G162" t="s">
+        <v>221</v>
+      </c>
       <c r="H162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I162" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>187</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G164" t="s">
+        <v>221</v>
+      </c>
       <c r="H164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>187</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G166" t="s">
+        <v>221</v>
+      </c>
       <c r="H166" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>187</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G168" t="s">
+        <v>221</v>
+      </c>
       <c r="H168" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>187</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G170" t="s">
+        <v>221</v>
+      </c>
       <c r="H170" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I170" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>187</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G172" t="s">
+        <v>221</v>
+      </c>
       <c r="H172" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>187</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G174" t="s">
+        <v>221</v>
+      </c>
       <c r="H174" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>187</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G176" t="s">
+        <v>221</v>
+      </c>
       <c r="H176" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G177" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>187</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G178" t="s">
+        <v>221</v>
+      </c>
       <c r="H178" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I178" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>206</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G180" t="s">
+        <v>242</v>
+      </c>
       <c r="H180" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>206</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G182" t="s">
+        <v>242</v>
+      </c>
       <c r="H182" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I182" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>206</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G184" t="s">
+        <v>242</v>
+      </c>
       <c r="H184" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I184" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
+        <v>35</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>206</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="G186" t="s">
+        <v>242</v>
+      </c>
       <c r="H186" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I186" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G187" t="s">
+        <v>35</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>216</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G189" t="s">
+        <v>254</v>
+      </c>
       <c r="H189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>216</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G191" t="s">
+        <v>254</v>
+      </c>
       <c r="H191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I191" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>216</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G193" t="s">
+        <v>254</v>
+      </c>
       <c r="H193" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I193" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G195" t="s">
+        <v>254</v>
+      </c>
       <c r="H195" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I195" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>225</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G197" t="s">
+        <v>265</v>
+      </c>
       <c r="H197" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>225</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G199" t="s">
+        <v>265</v>
+      </c>
       <c r="H199" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I199" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>225</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G201" t="s">
+        <v>265</v>
+      </c>
       <c r="H201" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I201" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>225</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G203" t="s">
+        <v>265</v>
+      </c>
       <c r="H203" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>225</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G205" t="s">
+        <v>265</v>
+      </c>
       <c r="H205" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I205" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G206" t="s">
+        <v>29</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>225</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G207" t="s">
+        <v>265</v>
+      </c>
       <c r="H207" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I207" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>32</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>225</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G209" t="s">
+        <v>265</v>
+      </c>
       <c r="H209" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I209" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>225</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G211" t="s">
+        <v>265</v>
+      </c>
       <c r="H211" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I211" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G212" t="s">
+        <v>35</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>225</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="G213" t="s">
+        <v>265</v>
+      </c>
       <c r="H213" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I213" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
       <c r="H214" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>244</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G215" t="s">
+        <v>286</v>
+      </c>
       <c r="H215" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I215" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G216" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>244</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G217" t="s">
+        <v>286</v>
+      </c>
       <c r="H217" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I217" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>244</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G219" t="s">
+        <v>286</v>
+      </c>
       <c r="H219" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I219" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>32</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>244</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G222" t="s">
+        <v>286</v>
+      </c>
       <c r="H222" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I222" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>244</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G224" t="s">
+        <v>286</v>
+      </c>
       <c r="H224" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I224" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>244</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G226" t="s">
+        <v>286</v>
+      </c>
       <c r="H226" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I226" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G227" t="s">
+        <v>32</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>244</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G228" t="s">
+        <v>286</v>
+      </c>
       <c r="H228" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I228" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
       <c r="H229" t="s">
-        <v>259</v>
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400441</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Neugebauer</t>
@@ -1271,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,7 +1285,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,6433 +1310,6936 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G87" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G99" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G101" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G105" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G109" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G115" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G117" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I117" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>34</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G121" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G123" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I125" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G127" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I127" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G129" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G131" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I131" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G133" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>37</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G135" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G137" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G139" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G142" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G144" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I144" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G146" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I146" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G148" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I148" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>29</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G150" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I150" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>32</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G152" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I152" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" t="s">
-        <v>35</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>37</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G154" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I154" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J154" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G156" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I156" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J156" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
-      </c>
-      <c r="G159" t="s">
-        <v>29</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G160" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I160" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G162" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I162" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G164" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I164" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J164" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G166" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I166" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J166" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G168" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I168" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J168" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G170" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I170" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G172" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I172" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>29</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G174" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I174" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G176" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I176" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J176" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>34</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G178" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I178" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J178" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G180" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I180" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J180" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
-      </c>
-      <c r="G181" t="s">
-        <v>32</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G182" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I182" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J182" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>37</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G184" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I184" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J184" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>37</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G186" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I186" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J186" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>35</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>37</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G189" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I189" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J189" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" t="s">
-        <v>29</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G191" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I191" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J191" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>29</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G193" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I193" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J193" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G194" t="s">
-        <v>32</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G195" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I195" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J195" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G197" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I197" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J197" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
-      </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>31</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G199" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I199" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J199" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
-      </c>
-      <c r="G200" t="s">
-        <v>29</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G201" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I201" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J201" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
-      </c>
-      <c r="G202" t="s">
-        <v>29</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G203" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I203" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J203" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
-      </c>
-      <c r="G204" t="s">
-        <v>29</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>31</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G205" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I205" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J205" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
-      </c>
-      <c r="G206" t="s">
-        <v>29</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G207" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I207" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J207" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>28</v>
-      </c>
-      <c r="G208" t="s">
-        <v>32</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>34</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G209" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I209" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J209" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>28</v>
-      </c>
-      <c r="G210" t="s">
-        <v>32</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G211" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I211" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J211" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>37</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G213" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I213" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>268</v>
+      </c>
+      <c r="J213" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G215" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I215" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J215" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>28</v>
-      </c>
-      <c r="G216" t="s">
-        <v>29</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>31</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G217" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I217" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J217" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
-      </c>
-      <c r="G218" t="s">
-        <v>29</v>
-      </c>
-      <c r="H218" t="s"/>
-      <c r="I218" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
+        <v>31</v>
+      </c>
+      <c r="I218" t="s"/>
+      <c r="J218" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G219" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I219" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J219" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>28</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
-      <c r="H220" t="s"/>
-      <c r="I220" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s"/>
+      <c r="H220" t="s">
+        <v>34</v>
+      </c>
+      <c r="I220" t="s"/>
+      <c r="J220" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
-      </c>
-      <c r="G221" t="s">
-        <v>35</v>
-      </c>
-      <c r="H221" t="s"/>
-      <c r="I221" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
+        <v>37</v>
+      </c>
+      <c r="I221" t="s"/>
+      <c r="J221" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G222" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I222" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J222" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
-      </c>
-      <c r="G223" t="s">
-        <v>29</v>
-      </c>
-      <c r="H223" t="s"/>
-      <c r="I223" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
+        <v>31</v>
+      </c>
+      <c r="I223" t="s"/>
+      <c r="J223" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G224" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I224" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J224" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>28</v>
-      </c>
-      <c r="G225" t="s">
-        <v>29</v>
-      </c>
-      <c r="H225" t="s"/>
-      <c r="I225" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
+        <v>31</v>
+      </c>
+      <c r="I225" t="s"/>
+      <c r="J225" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G226" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I226" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J226" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>28</v>
-      </c>
-      <c r="G227" t="s">
-        <v>32</v>
-      </c>
-      <c r="H227" t="s"/>
-      <c r="I227" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G227" t="s"/>
+      <c r="H227" t="s">
+        <v>34</v>
+      </c>
+      <c r="I227" t="s"/>
+      <c r="J227" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F228" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G228" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I228" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>289</v>
+      </c>
+      <c r="J228" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I229" t="s">
-        <v>302</v>
+        <v>16</v>
+      </c>
+      <c r="J229" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
